--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2782966.340923977</v>
+        <v>2780776.157809098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5904843.42869009</v>
+        <v>5904843.428690089</v>
       </c>
     </row>
     <row r="8">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475054</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.852413546446</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>104.3225890499761</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>174.1404107077194</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>166.1959795941941</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.9730522231948</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.52313384837929</v>
       </c>
       <c r="S13" t="n">
         <v>191.1608391039575</v>
@@ -1585,10 +1585,10 @@
         <v>286.216194430253</v>
       </c>
       <c r="V13" t="n">
-        <v>156.6592870572666</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.3534884035877</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>31.88869675803672</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>191.1608391039575</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>83.22652901150454</v>
       </c>
       <c r="U16" t="n">
         <v>286.216194430253</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417393</v>
       </c>
       <c r="G17" t="n">
         <v>411.0997690055786</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.52313384837929</v>
       </c>
       <c r="S19" t="n">
-        <v>95.68248283739625</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T19" t="n">
         <v>219.8901868729779</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>210.4151434190914</v>
       </c>
     </row>
     <row r="20">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>92.52313384837929</v>
       </c>
       <c r="S22" t="n">
         <v>191.1608391039575</v>
@@ -2293,13 +2293,13 @@
         <v>219.8901868729779</v>
       </c>
       <c r="U22" t="n">
-        <v>286.216194430253</v>
+        <v>98.21470431531179</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>191.0446420700296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>191.1608391039575</v>
@@ -2533,16 +2533,16 @@
         <v>286.216194430253</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9349797997349</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.5831632371542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>219.8901868729779</v>
       </c>
       <c r="U28" t="n">
-        <v>190.7378381636918</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.9349797997349</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.1056723774303</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>149.4669973329438</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.8901868729779</v>
       </c>
       <c r="U31" t="n">
-        <v>286.216194430253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.3468130648806</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>142.7662539809673</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86.25706225105199</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E34" t="n">
         <v>109.3682364455992</v>
       </c>
       <c r="F34" t="n">
-        <v>27.71902967815656</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>129.0399461764603</v>
       </c>
       <c r="H34" t="n">
-        <v>108.399353329689</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.68842606044963</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.45740764740931</v>
+        <v>55.45740764740934</v>
       </c>
       <c r="S34" t="n">
         <v>154.0951129029876</v>
@@ -3244,10 +3244,10 @@
         <v>249.150468229283</v>
       </c>
       <c r="V34" t="n">
-        <v>215.071917122858</v>
+        <v>215.0719171228581</v>
       </c>
       <c r="W34" t="n">
-        <v>249.457272135621</v>
+        <v>249.4572721356211</v>
       </c>
       <c r="X34" t="n">
         <v>188.6439291880672</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055777</v>
       </c>
       <c r="H35" t="n">
         <v>296.4311508672723</v>
@@ -3424,25 +3424,25 @@
         <v>142.7662539809673</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>130.1810948976579</v>
       </c>
       <c r="D37" t="n">
-        <v>48.40365403265517</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E37" t="n">
         <v>109.3682364455992</v>
       </c>
       <c r="F37" t="n">
-        <v>108.3553218219613</v>
+        <v>23.4274874694038</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>108.399353329689</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.68842606044963</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.45740764740931</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S37" t="n">
         <v>154.0951129029876</v>
@@ -3481,10 +3481,10 @@
         <v>249.150468229283</v>
       </c>
       <c r="V37" t="n">
-        <v>215.071917122858</v>
+        <v>215.0719171228581</v>
       </c>
       <c r="W37" t="n">
-        <v>249.457272135621</v>
+        <v>249.4572721356211</v>
       </c>
       <c r="X37" t="n">
         <v>188.6439291880672</v>
@@ -3554,7 +3554,7 @@
         <v>113.244924674728</v>
       </c>
       <c r="T38" t="n">
-        <v>204.6973549135475</v>
+        <v>204.6973549135481</v>
       </c>
       <c r="U38" t="n">
         <v>251.009415427072</v>
@@ -3664,10 +3664,10 @@
         <v>130.1810948976579</v>
       </c>
       <c r="D40" t="n">
-        <v>6.906171226097448</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>108.399353329689</v>
       </c>
       <c r="I40" t="n">
-        <v>61.68842606044963</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.45740764740931</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S40" t="n">
         <v>154.0951129029876</v>
@@ -3718,13 +3718,13 @@
         <v>249.150468229283</v>
       </c>
       <c r="V40" t="n">
-        <v>215.071917122858</v>
+        <v>215.0719171228581</v>
       </c>
       <c r="W40" t="n">
-        <v>249.457272135621</v>
+        <v>249.4572721356211</v>
       </c>
       <c r="X40" t="n">
-        <v>188.6439291880672</v>
+        <v>147.8702900290148</v>
       </c>
       <c r="Y40" t="n">
         <v>181.5189271511248</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055503</v>
       </c>
       <c r="H41" t="n">
         <v>296.4311508672723</v>
@@ -3898,25 +3898,25 @@
         <v>142.7662539809673</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>130.1810948976579</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E43" t="n">
-        <v>109.3682364455992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.71902967815686</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>129.0399461764603</v>
       </c>
       <c r="H43" t="n">
-        <v>108.399353329689</v>
+        <v>65.44420379899344</v>
       </c>
       <c r="I43" t="n">
-        <v>61.68842606044963</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.45740764740931</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S43" t="n">
         <v>154.0951129029876</v>
@@ -3955,10 +3955,10 @@
         <v>249.150468229283</v>
       </c>
       <c r="V43" t="n">
-        <v>215.071917122858</v>
+        <v>215.0719171228581</v>
       </c>
       <c r="W43" t="n">
-        <v>249.457272135621</v>
+        <v>249.4572721356211</v>
       </c>
       <c r="X43" t="n">
         <v>188.6439291880672</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055777</v>
       </c>
       <c r="H44" t="n">
         <v>296.4311508672723</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>113.2449246747272</v>
+        <v>113.244924674728</v>
       </c>
       <c r="T44" t="n">
         <v>204.6973549135481</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.7662539809673</v>
+        <v>102.0366463296424</v>
       </c>
       <c r="C46" t="n">
         <v>130.1810948976579</v>
       </c>
       <c r="D46" t="n">
-        <v>111.5497468172424</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.39637058531584</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>129.0399461764603</v>
       </c>
       <c r="H46" t="n">
-        <v>108.399353329689</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.68842606044963</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.45740764740931</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S46" t="n">
         <v>154.0951129029876</v>
@@ -4192,10 +4192,10 @@
         <v>249.150468229283</v>
       </c>
       <c r="V46" t="n">
-        <v>215.071917122858</v>
+        <v>215.0719171228581</v>
       </c>
       <c r="W46" t="n">
-        <v>249.457272135621</v>
+        <v>249.4572721356211</v>
       </c>
       <c r="X46" t="n">
         <v>188.6439291880672</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.1098286224635</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.1098286224635</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.1098286224635</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>546.1098286224635</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>539.16432787326</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224635</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4404,28 +4404,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>331.884613947129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>331.884613947129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>331.884613947129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750359</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750359</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.3591903907</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0934917839497</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>570.3052391857054</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>159.3193343960979</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656313</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656313</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917581</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>594.0068113513464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7411127445959</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7411127445959</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2445.177924555589</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,7 +4884,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598708</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C11" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593153</v>
       </c>
       <c r="D11" t="n">
-        <v>1656.225887986401</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E11" t="n">
-        <v>1270.437635388157</v>
+        <v>1270.437635388158</v>
       </c>
       <c r="F11" t="n">
-        <v>859.4517305985496</v>
+        <v>859.4517305985503</v>
       </c>
       <c r="G11" t="n">
         <v>444.1994386737234</v>
@@ -5039,19 +5039,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J11" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K11" t="n">
-        <v>1069.470498160096</v>
+        <v>902.064849139743</v>
       </c>
       <c r="L11" t="n">
-        <v>1492.689100880918</v>
+        <v>1738.768054265511</v>
       </c>
       <c r="M11" t="n">
-        <v>1995.270779346534</v>
+        <v>2241.349732731127</v>
       </c>
       <c r="N11" t="n">
-        <v>2701.466730428459</v>
+        <v>3078.458909878577</v>
       </c>
       <c r="O11" t="n">
         <v>3551.73306193099</v>
@@ -5072,19 +5072,19 @@
         <v>4471.035440516011</v>
       </c>
       <c r="U11" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448263</v>
       </c>
       <c r="V11" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104692</v>
       </c>
       <c r="W11" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834578</v>
       </c>
       <c r="X11" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="12">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.84378516563893</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="C13" t="n">
         <v>95.84378516563895</v>
@@ -5197,7 +5197,7 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J13" t="n">
-        <v>135.3764883732602</v>
+        <v>135.3764883732601</v>
       </c>
       <c r="K13" t="n">
         <v>330.1777004235333</v>
@@ -5215,34 +5215,34 @@
         <v>1584.209046862485</v>
       </c>
       <c r="P13" t="n">
-        <v>1807.253937215157</v>
+        <v>1807.253937215158</v>
       </c>
       <c r="Q13" t="n">
         <v>1878.243577816261</v>
       </c>
       <c r="R13" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S13" t="n">
-        <v>1685.151821145597</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T13" t="n">
-        <v>1463.040521273902</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U13" t="n">
-        <v>1173.933254172636</v>
+        <v>1080.475543214677</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.691550074387</v>
+        <v>825.7910550087904</v>
       </c>
       <c r="W13" t="n">
-        <v>726.2743800374261</v>
+        <v>544.6259152071864</v>
       </c>
       <c r="X13" t="n">
-        <v>498.2848291394088</v>
+        <v>316.636364309169</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.4922499958786</v>
+        <v>95.84378516563895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C14" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D14" t="n">
         <v>1656.225887986402</v>
@@ -5264,10 +5264,10 @@
         <v>1270.437635388158</v>
       </c>
       <c r="F14" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G14" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H14" t="n">
         <v>144.7740337572867</v>
@@ -5279,13 +5279,13 @@
         <v>437.1684702571587</v>
       </c>
       <c r="K14" t="n">
-        <v>1069.470498160096</v>
+        <v>827.3652102391675</v>
       </c>
       <c r="L14" t="n">
-        <v>1683.557268127854</v>
+        <v>1250.58381295999</v>
       </c>
       <c r="M14" t="n">
-        <v>2186.138946593469</v>
+        <v>1753.165491425605</v>
       </c>
       <c r="N14" t="n">
         <v>2701.466730428459</v>
@@ -5358,13 +5358,13 @@
         <v>305.4410496149624</v>
       </c>
       <c r="K15" t="n">
-        <v>545.3197013023907</v>
+        <v>528.4764171923166</v>
       </c>
       <c r="L15" t="n">
-        <v>891.5408184392089</v>
+        <v>874.6975343291349</v>
       </c>
       <c r="M15" t="n">
-        <v>1314.921400115041</v>
+        <v>1298.078116004967</v>
       </c>
       <c r="N15" t="n">
         <v>1763.91625089534</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.0545899717366</v>
+        <v>264.7799680935458</v>
       </c>
       <c r="C16" t="n">
-        <v>128.0545899717366</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0545899717366</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0545899717366</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="F16" t="n">
-        <v>128.0545899717366</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0545899717366</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="H16" t="n">
         <v>95.84378516563895</v>
@@ -5437,13 +5437,13 @@
         <v>135.3764883732602</v>
       </c>
       <c r="K16" t="n">
-        <v>330.1777004235335</v>
+        <v>330.1777004235333</v>
       </c>
       <c r="L16" t="n">
-        <v>634.982618740906</v>
+        <v>634.9826187409059</v>
       </c>
       <c r="M16" t="n">
-        <v>966.7457913979969</v>
+        <v>966.7457913979968</v>
       </c>
       <c r="N16" t="n">
         <v>1296.054993758307</v>
@@ -5464,22 +5464,22 @@
         <v>1591.694110187638</v>
       </c>
       <c r="T16" t="n">
-        <v>1591.694110187638</v>
+        <v>1507.626909165916</v>
       </c>
       <c r="U16" t="n">
-        <v>1302.586843086372</v>
+        <v>1218.51964206465</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.902354880485</v>
+        <v>963.8351538587634</v>
       </c>
       <c r="W16" t="n">
-        <v>758.4851848435242</v>
+        <v>674.4179838218029</v>
       </c>
       <c r="X16" t="n">
-        <v>530.4956339455068</v>
+        <v>446.4284329237855</v>
       </c>
       <c r="Y16" t="n">
-        <v>309.7030548019767</v>
+        <v>446.4284329237855</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533592</v>
       </c>
       <c r="C17" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593181</v>
       </c>
       <c r="D17" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986431</v>
       </c>
       <c r="E17" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388187</v>
       </c>
       <c r="F17" t="n">
-        <v>859.451730598551</v>
+        <v>859.4517305985507</v>
       </c>
       <c r="G17" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737239</v>
       </c>
       <c r="H17" t="n">
-        <v>144.7740337572867</v>
+        <v>144.7740337572873</v>
       </c>
       <c r="I17" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="J17" t="n">
-        <v>269.7628212368057</v>
+        <v>437.1684702571593</v>
       </c>
       <c r="K17" t="n">
-        <v>581.1608906942899</v>
+        <v>748.5665397146436</v>
       </c>
       <c r="L17" t="n">
-        <v>1417.864095820058</v>
+        <v>1585.269744840411</v>
       </c>
       <c r="M17" t="n">
-        <v>2365.464172443578</v>
+        <v>2396.330787346803</v>
       </c>
       <c r="N17" t="n">
-        <v>3313.765411446432</v>
+        <v>2911.658571181793</v>
       </c>
       <c r="O17" t="n">
-        <v>4145.564879448317</v>
+        <v>3761.924902684324</v>
       </c>
       <c r="P17" t="n">
-        <v>4514.992417781604</v>
+        <v>4449.933162107379</v>
       </c>
       <c r="Q17" t="n">
-        <v>4744.244367285898</v>
+        <v>4679.185111611673</v>
       </c>
       <c r="R17" t="n">
-        <v>4792.189258281947</v>
+        <v>4792.189258281976</v>
       </c>
       <c r="S17" t="n">
-        <v>4677.800445479192</v>
+        <v>4677.80044547922</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.03544051604</v>
       </c>
       <c r="U17" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448291</v>
       </c>
       <c r="V17" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.42768910472</v>
       </c>
       <c r="W17" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834606</v>
       </c>
       <c r="X17" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573526</v>
       </c>
       <c r="Y17" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597714</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.9860088266936</v>
+        <v>964.986008826694</v>
       </c>
       <c r="C18" t="n">
-        <v>790.5329795455666</v>
+        <v>790.5329795455671</v>
       </c>
       <c r="D18" t="n">
-        <v>641.5985698843153</v>
+        <v>641.5985698843158</v>
       </c>
       <c r="E18" t="n">
-        <v>482.3611148788598</v>
+        <v>482.3611148788603</v>
       </c>
       <c r="F18" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057453</v>
       </c>
       <c r="G18" t="n">
-        <v>199.367232908405</v>
+        <v>199.3672329084056</v>
       </c>
       <c r="H18" t="n">
-        <v>107.9360189253636</v>
+        <v>107.9360189253642</v>
       </c>
       <c r="I18" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="J18" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279582</v>
       </c>
       <c r="K18" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053125</v>
       </c>
       <c r="L18" t="n">
-        <v>891.5408184392089</v>
+        <v>891.5408184392098</v>
       </c>
       <c r="M18" t="n">
-        <v>1314.921400115041</v>
+        <v>1314.921400115042</v>
       </c>
       <c r="N18" t="n">
-        <v>1763.91625089534</v>
+        <v>1763.916250895341</v>
       </c>
       <c r="O18" t="n">
         <v>2152.439025896464</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.929739364486</v>
+        <v>2444.929739364487</v>
       </c>
       <c r="Q18" t="n">
-        <v>2590.532838984828</v>
+        <v>2590.532838984829</v>
       </c>
       <c r="R18" t="n">
-        <v>2590.532838984828</v>
+        <v>2590.532838984829</v>
       </c>
       <c r="S18" t="n">
-        <v>2459.307637040275</v>
+        <v>2459.307637040276</v>
       </c>
       <c r="T18" t="n">
         <v>2266.276787157906</v>
       </c>
       <c r="U18" t="n">
-        <v>2038.202609777192</v>
+        <v>2038.202609777193</v>
       </c>
       <c r="V18" t="n">
         <v>1803.05050154545</v>
       </c>
       <c r="W18" t="n">
-        <v>1548.813144817248</v>
+        <v>1548.813144817249</v>
       </c>
       <c r="X18" t="n">
-        <v>1340.961644611715</v>
+        <v>1340.961644611716</v>
       </c>
       <c r="Y18" t="n">
         <v>1133.201345846762</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563947</v>
       </c>
       <c r="C19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="D19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="E19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="F19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="G19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="H19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="I19" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563952</v>
       </c>
       <c r="J19" t="n">
-        <v>135.37648837326</v>
+        <v>135.3764883732607</v>
       </c>
       <c r="K19" t="n">
-        <v>330.1777004235332</v>
+        <v>330.1777004235338</v>
       </c>
       <c r="L19" t="n">
-        <v>634.9826187409058</v>
+        <v>634.9826187409066</v>
       </c>
       <c r="M19" t="n">
-        <v>966.7457913979966</v>
+        <v>966.7457913979972</v>
       </c>
       <c r="N19" t="n">
         <v>1296.054993758307</v>
       </c>
       <c r="O19" t="n">
-        <v>1584.209046862485</v>
+        <v>1584.209046862486</v>
       </c>
       <c r="P19" t="n">
-        <v>1807.253937215157</v>
+        <v>1807.253937215158</v>
       </c>
       <c r="Q19" t="n">
         <v>1878.243577816261</v>
       </c>
       <c r="R19" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S19" t="n">
-        <v>1781.594605253234</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.483305381539</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.376038280274</v>
+        <v>1080.475543214677</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.691550074387</v>
+        <v>825.7910550087905</v>
       </c>
       <c r="W19" t="n">
-        <v>726.2743800374261</v>
+        <v>536.37388497183</v>
       </c>
       <c r="X19" t="n">
-        <v>498.2848291394088</v>
+        <v>308.3843340738126</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.4922499958786</v>
+        <v>95.84378516563947</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C20" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D20" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E20" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F20" t="n">
-        <v>859.4517305985505</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G20" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H20" t="n">
         <v>144.7740337572867</v>
@@ -5750,52 +5750,52 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J20" t="n">
-        <v>269.7628212368057</v>
+        <v>437.1684702571587</v>
       </c>
       <c r="K20" t="n">
-        <v>581.1608906942899</v>
+        <v>748.5665397146429</v>
       </c>
       <c r="L20" t="n">
-        <v>1399.397232319413</v>
+        <v>1585.269744840411</v>
       </c>
       <c r="M20" t="n">
-        <v>2346.997308942932</v>
+        <v>2087.851423306026</v>
       </c>
       <c r="N20" t="n">
-        <v>3295.298547945787</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O20" t="n">
-        <v>4145.564879448317</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P20" t="n">
-        <v>4514.992417781604</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q20" t="n">
-        <v>4744.244367285898</v>
+        <v>4679.185111611645</v>
       </c>
       <c r="R20" t="n">
         <v>4792.189258281947</v>
       </c>
       <c r="S20" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U20" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V20" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W20" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X20" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y20" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="21">
@@ -5829,7 +5829,7 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J21" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K21" t="n">
         <v>545.3197013023907</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.84378516563896</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="C22" t="n">
         <v>95.84378516563895</v>
@@ -5908,43 +5908,43 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J22" t="n">
-        <v>135.3764883732608</v>
+        <v>135.3764883732601</v>
       </c>
       <c r="K22" t="n">
-        <v>330.1777004235339</v>
+        <v>330.1777004235333</v>
       </c>
       <c r="L22" t="n">
-        <v>634.9826187409064</v>
+        <v>634.982618740906</v>
       </c>
       <c r="M22" t="n">
-        <v>966.7457913979973</v>
+        <v>966.7457913979969</v>
       </c>
       <c r="N22" t="n">
         <v>1296.054993758307</v>
       </c>
       <c r="O22" t="n">
-        <v>1584.209046862486</v>
+        <v>1584.209046862485</v>
       </c>
       <c r="P22" t="n">
-        <v>1807.253937215158</v>
+        <v>1807.253937215157</v>
       </c>
       <c r="Q22" t="n">
         <v>1878.243577816261</v>
       </c>
       <c r="R22" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S22" t="n">
-        <v>1685.151821145597</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T22" t="n">
-        <v>1463.040521273902</v>
+        <v>1369.582810315942</v>
       </c>
       <c r="U22" t="n">
-        <v>1173.933254172636</v>
+        <v>1270.376038280274</v>
       </c>
       <c r="V22" t="n">
-        <v>919.2487659667489</v>
+        <v>1015.691550074387</v>
       </c>
       <c r="W22" t="n">
         <v>726.2743800374261</v>
@@ -5987,25 +5987,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J23" t="n">
-        <v>269.7628212368057</v>
+        <v>437.1684702571587</v>
       </c>
       <c r="K23" t="n">
-        <v>902.064849139743</v>
+        <v>748.5665397146429</v>
       </c>
       <c r="L23" t="n">
-        <v>1738.768054265511</v>
+        <v>1171.785142435465</v>
       </c>
       <c r="M23" t="n">
-        <v>2241.349732731127</v>
+        <v>2071.746212515373</v>
       </c>
       <c r="N23" t="n">
-        <v>3189.650971733981</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O23" t="n">
-        <v>4039.917303236511</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P23" t="n">
-        <v>4409.344841569799</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q23" t="n">
         <v>4679.185111611645</v>
@@ -6066,19 +6066,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J24" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K24" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L24" t="n">
-        <v>891.5408184392089</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M24" t="n">
-        <v>1314.921400115041</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N24" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O24" t="n">
         <v>2152.439025896464</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.84378516563895</v>
+        <v>243.756878748032</v>
       </c>
       <c r="C25" t="n">
-        <v>95.84378516563895</v>
+        <v>243.756878748032</v>
       </c>
       <c r="D25" t="n">
-        <v>95.84378516563895</v>
+        <v>243.756878748032</v>
       </c>
       <c r="E25" t="n">
         <v>95.84378516563895</v>
@@ -6169,28 +6169,28 @@
         <v>1878.243577816261</v>
       </c>
       <c r="R25" t="n">
-        <v>1784.785866858302</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="S25" t="n">
-        <v>1591.694110187638</v>
+        <v>1685.151821145597</v>
       </c>
       <c r="T25" t="n">
-        <v>1369.582810315943</v>
+        <v>1463.040521273902</v>
       </c>
       <c r="U25" t="n">
-        <v>1080.475543214677</v>
+        <v>1173.933254172636</v>
       </c>
       <c r="V25" t="n">
-        <v>825.7910550087901</v>
+        <v>935.6150927587624</v>
       </c>
       <c r="W25" t="n">
-        <v>536.3738849718295</v>
+        <v>646.1979227218018</v>
       </c>
       <c r="X25" t="n">
-        <v>308.3843340738122</v>
+        <v>646.1979227218018</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.4922499958786</v>
+        <v>425.4053435782716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D26" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E26" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F26" t="n">
-        <v>859.4517305985505</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G26" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H26" t="n">
         <v>144.7740337572867</v>
@@ -6227,22 +6227,22 @@
         <v>269.7628212368057</v>
       </c>
       <c r="K26" t="n">
-        <v>581.1608906942899</v>
+        <v>902.064849139743</v>
       </c>
       <c r="L26" t="n">
-        <v>1417.864095820058</v>
+        <v>1738.768054265511</v>
       </c>
       <c r="M26" t="n">
-        <v>2365.464172443578</v>
+        <v>2241.349732731127</v>
       </c>
       <c r="N26" t="n">
-        <v>3313.765411446432</v>
+        <v>3189.650971733981</v>
       </c>
       <c r="O26" t="n">
-        <v>4145.564879448317</v>
+        <v>3935.373038695011</v>
       </c>
       <c r="P26" t="n">
-        <v>4514.992417781604</v>
+        <v>4304.800577028298</v>
       </c>
       <c r="Q26" t="n">
         <v>4744.244367285898</v>
@@ -6251,25 +6251,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S26" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T26" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U26" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V26" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W26" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X26" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y26" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J27" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K27" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L27" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M27" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N27" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O27" t="n">
         <v>2152.439025896464</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.84378516563902</v>
+        <v>243.7568787480319</v>
       </c>
       <c r="C28" t="n">
-        <v>95.84378516563902</v>
+        <v>243.756878748032</v>
       </c>
       <c r="D28" t="n">
-        <v>95.84378516563902</v>
+        <v>243.7568787480321</v>
       </c>
       <c r="E28" t="n">
-        <v>95.84378516563902</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="F28" t="n">
         <v>95.84378516563895</v>
@@ -6382,16 +6382,16 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J28" t="n">
-        <v>135.3764883732601</v>
+        <v>135.37648837326</v>
       </c>
       <c r="K28" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235332</v>
       </c>
       <c r="L28" t="n">
-        <v>634.982618740906</v>
+        <v>634.9826187409059</v>
       </c>
       <c r="M28" t="n">
-        <v>966.7457913979968</v>
+        <v>966.7457913979966</v>
       </c>
       <c r="N28" t="n">
         <v>1296.054993758307</v>
@@ -6409,25 +6409,25 @@
         <v>1878.243577816261</v>
       </c>
       <c r="S28" t="n">
-        <v>1685.151821145596</v>
+        <v>1685.151821145597</v>
       </c>
       <c r="T28" t="n">
         <v>1463.040521273902</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.376038280274</v>
+        <v>1173.933254172636</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.691550074387</v>
+        <v>935.6150927587624</v>
       </c>
       <c r="W28" t="n">
-        <v>726.2743800374262</v>
+        <v>646.1979227218018</v>
       </c>
       <c r="X28" t="n">
-        <v>498.2848291394088</v>
+        <v>646.1979227218018</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.4922499958788</v>
+        <v>425.4053435782716</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C29" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593153</v>
       </c>
       <c r="D29" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986403</v>
       </c>
       <c r="E29" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F29" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985505</v>
       </c>
       <c r="G29" t="n">
-        <v>444.1994386737233</v>
+        <v>444.1994386737234</v>
       </c>
       <c r="H29" t="n">
-        <v>144.7740337572868</v>
+        <v>144.7740337572867</v>
       </c>
       <c r="I29" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J29" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K29" t="n">
-        <v>1069.470498160096</v>
+        <v>902.064849139743</v>
       </c>
       <c r="L29" t="n">
         <v>1683.557268127854</v>
@@ -6488,25 +6488,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S29" t="n">
-        <v>4677.800445479192</v>
+        <v>4677.800445479193</v>
       </c>
       <c r="T29" t="n">
-        <v>4471.035440516011</v>
+        <v>4471.035440516012</v>
       </c>
       <c r="U29" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448263</v>
       </c>
       <c r="V29" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104692</v>
       </c>
       <c r="W29" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834578</v>
       </c>
       <c r="X29" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573498</v>
       </c>
       <c r="Y29" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J30" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K30" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L30" t="n">
-        <v>891.5408184392089</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M30" t="n">
-        <v>1314.921400115041</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N30" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O30" t="n">
-        <v>2152.439025896464</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P30" t="n">
         <v>2444.929739364486</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.6272926175888</v>
+        <v>877.4831560381348</v>
       </c>
       <c r="C31" t="n">
-        <v>263.6272926175888</v>
+        <v>708.5469731102279</v>
       </c>
       <c r="D31" t="n">
-        <v>263.6272926175888</v>
+        <v>558.4303336978921</v>
       </c>
       <c r="E31" t="n">
-        <v>263.6272926175888</v>
+        <v>410.5172401154991</v>
       </c>
       <c r="F31" t="n">
         <v>263.6272926175888</v>
@@ -6619,16 +6619,16 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J31" t="n">
-        <v>135.3764883732601</v>
+        <v>135.37648837326</v>
       </c>
       <c r="K31" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235332</v>
       </c>
       <c r="L31" t="n">
-        <v>634.982618740906</v>
+        <v>634.9826187409058</v>
       </c>
       <c r="M31" t="n">
-        <v>966.7457913979969</v>
+        <v>966.7457913979966</v>
       </c>
       <c r="N31" t="n">
         <v>1296.054993758307</v>
@@ -6646,25 +6646,25 @@
         <v>1878.243577816261</v>
       </c>
       <c r="S31" t="n">
-        <v>1727.266812833489</v>
+        <v>1685.151821145596</v>
       </c>
       <c r="T31" t="n">
-        <v>1727.266812833489</v>
+        <v>1463.040521273902</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.159545732224</v>
+        <v>1463.040521273902</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.475057526337</v>
+        <v>1348.548790905335</v>
       </c>
       <c r="W31" t="n">
-        <v>894.057887489376</v>
+        <v>1059.131620868375</v>
       </c>
       <c r="X31" t="n">
-        <v>666.0683365913586</v>
+        <v>1059.131620868375</v>
       </c>
       <c r="Y31" t="n">
-        <v>445.2757574478285</v>
+        <v>1059.131620868375</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>269.7628212368057</v>
       </c>
       <c r="K32" t="n">
-        <v>902.064849139743</v>
+        <v>581.1608906942899</v>
       </c>
       <c r="L32" t="n">
-        <v>1738.768054265511</v>
+        <v>1417.864095820058</v>
       </c>
       <c r="M32" t="n">
-        <v>2241.349732731127</v>
+        <v>2365.464172443578</v>
       </c>
       <c r="N32" t="n">
-        <v>3189.650971733981</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O32" t="n">
-        <v>4039.917303236511</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P32" t="n">
-        <v>4409.344841569799</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q32" t="n">
         <v>4679.185111611645</v>
@@ -6777,25 +6777,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J33" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K33" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L33" t="n">
-        <v>891.5408184392089</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M33" t="n">
-        <v>1314.921400115041</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N33" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O33" t="n">
-        <v>2152.439025896464</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P33" t="n">
-        <v>2444.929739364486</v>
+        <v>2303.256330267407</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.532838984828</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.4649888932702</v>
+        <v>536.4649888932695</v>
       </c>
       <c r="C34" t="n">
-        <v>536.4649888932702</v>
+        <v>449.336643185136</v>
       </c>
       <c r="D34" t="n">
-        <v>536.4649888932702</v>
+        <v>336.6601312485275</v>
       </c>
       <c r="E34" t="n">
-        <v>425.9920227866044</v>
+        <v>226.1871651418616</v>
       </c>
       <c r="F34" t="n">
-        <v>397.9930029096783</v>
+        <v>226.1871651418616</v>
       </c>
       <c r="G34" t="n">
-        <v>267.6496229334558</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="I34" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J34" t="n">
-        <v>172.0715573122204</v>
+        <v>172.0715573122203</v>
       </c>
       <c r="K34" t="n">
-        <v>403.5678383014538</v>
+        <v>403.5678383014537</v>
       </c>
       <c r="L34" t="n">
-        <v>745.067825557787</v>
+        <v>745.0678255577866</v>
       </c>
       <c r="M34" t="n">
-        <v>1113.526067153838</v>
+        <v>1113.526067153837</v>
       </c>
       <c r="N34" t="n">
         <v>1479.530338453108</v>
       </c>
       <c r="O34" t="n">
-        <v>1804.379460496247</v>
+        <v>1804.379460496246</v>
       </c>
       <c r="P34" t="n">
         <v>2064.119419787879</v>
@@ -6886,22 +6886,22 @@
         <v>1960.134916650774</v>
       </c>
       <c r="T34" t="n">
-        <v>1775.463744254807</v>
+        <v>1775.463744254806</v>
       </c>
       <c r="U34" t="n">
         <v>1523.796604629268</v>
       </c>
       <c r="V34" t="n">
-        <v>1306.552243899109</v>
+        <v>1306.552243899108</v>
       </c>
       <c r="W34" t="n">
-        <v>1054.575201337876</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X34" t="n">
-        <v>864.0257779155854</v>
+        <v>864.0257779155849</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.6733262477826</v>
+        <v>680.6733262477819</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2383.454103533563</v>
       </c>
       <c r="C35" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D35" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E35" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F35" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G35" t="n">
         <v>444.1994386737234</v>
@@ -6935,25 +6935,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J35" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K35" t="n">
-        <v>1069.470498160096</v>
+        <v>581.1608906942899</v>
       </c>
       <c r="L35" t="n">
-        <v>1906.173703285864</v>
+        <v>1417.864095820058</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.755381751479</v>
+        <v>2340.349511629029</v>
       </c>
       <c r="N35" t="n">
-        <v>2924.083165586469</v>
+        <v>3288.650750631883</v>
       </c>
       <c r="O35" t="n">
-        <v>3551.73306193099</v>
+        <v>3761.924902684295</v>
       </c>
       <c r="P35" t="n">
-        <v>4239.741321354045</v>
+        <v>4449.933162107351</v>
       </c>
       <c r="Q35" t="n">
         <v>4679.185111611645</v>
@@ -7014,25 +7014,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J36" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K36" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L36" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M36" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N36" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.59574178639</v>
+        <v>2152.439025896464</v>
       </c>
       <c r="P36" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364486</v>
       </c>
       <c r="Q36" t="n">
         <v>2590.532838984828</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.4649888932697</v>
+        <v>536.4649888932689</v>
       </c>
       <c r="C37" t="n">
-        <v>536.4649888932697</v>
+        <v>404.9689334410892</v>
       </c>
       <c r="D37" t="n">
-        <v>487.5724090623049</v>
+        <v>292.2924215044807</v>
       </c>
       <c r="E37" t="n">
-        <v>377.099442955639</v>
+        <v>181.8194553978148</v>
       </c>
       <c r="F37" t="n">
-        <v>267.6496229334559</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="G37" t="n">
-        <v>267.6496229334559</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1553266408406</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="I37" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J37" t="n">
-        <v>172.0715573122201</v>
+        <v>172.0715573122204</v>
       </c>
       <c r="K37" t="n">
-        <v>403.5678383014535</v>
+        <v>403.5678383014538</v>
       </c>
       <c r="L37" t="n">
         <v>745.0678255577866</v>
@@ -7108,7 +7108,7 @@
         <v>1479.530338453108</v>
       </c>
       <c r="O37" t="n">
-        <v>1804.379460496247</v>
+        <v>1804.379460496246</v>
       </c>
       <c r="P37" t="n">
         <v>2064.119419787879</v>
@@ -7123,22 +7123,22 @@
         <v>1960.134916650774</v>
       </c>
       <c r="T37" t="n">
-        <v>1775.463744254807</v>
+        <v>1775.463744254806</v>
       </c>
       <c r="U37" t="n">
         <v>1523.796604629268</v>
       </c>
       <c r="V37" t="n">
-        <v>1306.552243899109</v>
+        <v>1306.552243899108</v>
       </c>
       <c r="W37" t="n">
-        <v>1054.575201337876</v>
+        <v>1054.575201337874</v>
       </c>
       <c r="X37" t="n">
-        <v>864.0257779155854</v>
+        <v>864.0257779155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.6733262477826</v>
+        <v>680.6733262477815</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C38" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D38" t="n">
         <v>1656.225887986402</v>
@@ -7160,10 +7160,10 @@
         <v>1270.437635388158</v>
       </c>
       <c r="F38" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G38" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H38" t="n">
         <v>144.7740337572867</v>
@@ -7172,22 +7172,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J38" t="n">
-        <v>310.351141774358</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K38" t="n">
-        <v>942.6531696772953</v>
+        <v>902.064849139743</v>
       </c>
       <c r="L38" t="n">
-        <v>1779.356374803063</v>
+        <v>1738.768054265511</v>
       </c>
       <c r="M38" t="n">
-        <v>2281.938053268679</v>
+        <v>2686.368130889031</v>
       </c>
       <c r="N38" t="n">
-        <v>3230.239292271533</v>
+        <v>3201.695914724021</v>
       </c>
       <c r="O38" t="n">
-        <v>4080.505623774063</v>
+        <v>4051.962246226551</v>
       </c>
       <c r="P38" t="n">
         <v>4449.933162107351</v>
@@ -7202,22 +7202,22 @@
         <v>4677.800445479192</v>
       </c>
       <c r="T38" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U38" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V38" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W38" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X38" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y38" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J39" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K39" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L39" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M39" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N39" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.59574178639</v>
+        <v>2152.439025896464</v>
       </c>
       <c r="P39" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364486</v>
       </c>
       <c r="Q39" t="n">
         <v>2590.532838984828</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.4649888932695</v>
+        <v>577.6504829933223</v>
       </c>
       <c r="C40" t="n">
-        <v>404.9689334410898</v>
+        <v>446.1544275411426</v>
       </c>
       <c r="D40" t="n">
-        <v>397.9930029096782</v>
+        <v>446.1544275411426</v>
       </c>
       <c r="E40" t="n">
-        <v>397.9930029096782</v>
+        <v>335.6814614344767</v>
       </c>
       <c r="F40" t="n">
-        <v>397.9930029096782</v>
+        <v>335.6814614344767</v>
       </c>
       <c r="G40" t="n">
-        <v>267.6496229334557</v>
+        <v>205.3380814582541</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="I40" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J40" t="n">
-        <v>172.0715573122201</v>
+        <v>172.0715573122204</v>
       </c>
       <c r="K40" t="n">
-        <v>403.5678383014535</v>
+        <v>403.5678383014537</v>
       </c>
       <c r="L40" t="n">
-        <v>745.0678255577865</v>
+        <v>745.0678255577866</v>
       </c>
       <c r="M40" t="n">
         <v>1113.526067153838</v>
@@ -7345,7 +7345,7 @@
         <v>1479.530338453108</v>
       </c>
       <c r="O40" t="n">
-        <v>1804.379460496246</v>
+        <v>1804.379460496247</v>
       </c>
       <c r="P40" t="n">
         <v>2064.119419787879</v>
@@ -7360,7 +7360,7 @@
         <v>1960.134916650774</v>
       </c>
       <c r="T40" t="n">
-        <v>1775.463744254806</v>
+        <v>1775.463744254807</v>
       </c>
       <c r="U40" t="n">
         <v>1523.796604629268</v>
@@ -7372,10 +7372,10 @@
         <v>1054.575201337875</v>
       </c>
       <c r="X40" t="n">
-        <v>864.0257779155847</v>
+        <v>905.2112720156376</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.6733262477819</v>
+        <v>721.8588203478348</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533535</v>
       </c>
       <c r="C41" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593123</v>
       </c>
       <c r="D41" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986373</v>
       </c>
       <c r="E41" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388129</v>
       </c>
       <c r="F41" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985212</v>
       </c>
       <c r="G41" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737229</v>
       </c>
       <c r="H41" t="n">
-        <v>144.7740337572867</v>
+        <v>144.7740337572861</v>
       </c>
       <c r="I41" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563838</v>
       </c>
       <c r="J41" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368051</v>
       </c>
       <c r="K41" t="n">
-        <v>1069.470498160096</v>
+        <v>902.0648491397424</v>
       </c>
       <c r="L41" t="n">
-        <v>1492.689100880918</v>
+        <v>1738.76805426551</v>
       </c>
       <c r="M41" t="n">
-        <v>2186.138946593469</v>
+        <v>2241.349732731126</v>
       </c>
       <c r="N41" t="n">
-        <v>2701.466730428459</v>
+        <v>3189.65097173398</v>
       </c>
       <c r="O41" t="n">
-        <v>3551.73306193099</v>
+        <v>3662.925123786392</v>
       </c>
       <c r="P41" t="n">
-        <v>4239.741321354045</v>
+        <v>4350.933383209447</v>
       </c>
       <c r="Q41" t="n">
-        <v>4679.185111611645</v>
+        <v>4679.185111611617</v>
       </c>
       <c r="R41" t="n">
-        <v>4792.189258281947</v>
+        <v>4792.189258281919</v>
       </c>
       <c r="S41" t="n">
-        <v>4677.800445479192</v>
+        <v>4677.800445479163</v>
       </c>
       <c r="T41" t="n">
-        <v>4471.035440516011</v>
+        <v>4471.035440515983</v>
       </c>
       <c r="U41" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448234</v>
       </c>
       <c r="V41" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104663</v>
       </c>
       <c r="W41" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834549</v>
       </c>
       <c r="X41" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573469</v>
       </c>
       <c r="Y41" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597657</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>964.9860088266936</v>
+        <v>964.9860088266929</v>
       </c>
       <c r="C42" t="n">
-        <v>790.5329795455666</v>
+        <v>790.5329795455659</v>
       </c>
       <c r="D42" t="n">
-        <v>641.5985698843153</v>
+        <v>641.5985698843147</v>
       </c>
       <c r="E42" t="n">
-        <v>482.3611148788598</v>
+        <v>482.3611148788592</v>
       </c>
       <c r="F42" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057442</v>
       </c>
       <c r="G42" t="n">
-        <v>199.367232908405</v>
+        <v>199.3672329084044</v>
       </c>
       <c r="H42" t="n">
-        <v>107.9360189253636</v>
+        <v>107.9360189253631</v>
       </c>
       <c r="I42" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563838</v>
       </c>
       <c r="J42" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279571</v>
       </c>
       <c r="K42" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053113</v>
       </c>
       <c r="L42" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421296</v>
       </c>
       <c r="M42" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017961</v>
       </c>
       <c r="N42" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O42" t="n">
-        <v>2135.59574178639</v>
+        <v>2010.765616799384</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.086455254412</v>
+        <v>2303.256330267406</v>
       </c>
       <c r="Q42" t="n">
-        <v>2590.532838984828</v>
+        <v>2590.532838984827</v>
       </c>
       <c r="R42" t="n">
-        <v>2590.532838984828</v>
+        <v>2590.532838984827</v>
       </c>
       <c r="S42" t="n">
-        <v>2459.307637040275</v>
+        <v>2459.307637040274</v>
       </c>
       <c r="T42" t="n">
-        <v>2266.276787157906</v>
+        <v>2266.276787157905</v>
       </c>
       <c r="U42" t="n">
         <v>2038.202609777192</v>
       </c>
       <c r="V42" t="n">
-        <v>1803.05050154545</v>
+        <v>1803.050501545449</v>
       </c>
       <c r="W42" t="n">
         <v>1548.813144817248</v>
@@ -7533,7 +7533,7 @@
         <v>1340.961644611715</v>
       </c>
       <c r="Y42" t="n">
-        <v>1133.201345846762</v>
+        <v>1133.201345846761</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>536.4649888932704</v>
+        <v>536.4649888932693</v>
       </c>
       <c r="C43" t="n">
-        <v>536.4649888932704</v>
+        <v>404.9689334410896</v>
       </c>
       <c r="D43" t="n">
-        <v>536.4649888932704</v>
+        <v>292.2924215044806</v>
       </c>
       <c r="E43" t="n">
-        <v>425.9920227866045</v>
+        <v>292.2924215044806</v>
       </c>
       <c r="F43" t="n">
-        <v>397.9930029096782</v>
+        <v>292.2924215044806</v>
       </c>
       <c r="G43" t="n">
-        <v>267.6496229334557</v>
+        <v>161.949041528258</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563838</v>
       </c>
       <c r="I43" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563838</v>
       </c>
       <c r="J43" t="n">
-        <v>172.0715573122204</v>
+        <v>172.07155731222</v>
       </c>
       <c r="K43" t="n">
-        <v>403.5678383014538</v>
+        <v>403.5678383014533</v>
       </c>
       <c r="L43" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577863</v>
       </c>
       <c r="M43" t="n">
-        <v>1113.526067153838</v>
+        <v>1113.526067153837</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.530338453108</v>
+        <v>1479.530338453107</v>
       </c>
       <c r="O43" t="n">
-        <v>1804.379460496247</v>
+        <v>1804.379460496246</v>
       </c>
       <c r="P43" t="n">
-        <v>2064.119419787879</v>
+        <v>2064.119419787878</v>
       </c>
       <c r="Q43" t="n">
-        <v>2171.804129327943</v>
+        <v>2171.804129327942</v>
       </c>
       <c r="R43" t="n">
-        <v>2115.786545845711</v>
+        <v>2115.78654584571</v>
       </c>
       <c r="S43" t="n">
-        <v>1960.134916650775</v>
+        <v>1960.134916650774</v>
       </c>
       <c r="T43" t="n">
-        <v>1775.463744254807</v>
+        <v>1775.463744254806</v>
       </c>
       <c r="U43" t="n">
-        <v>1523.796604629269</v>
+        <v>1523.796604629268</v>
       </c>
       <c r="V43" t="n">
-        <v>1306.552243899109</v>
+        <v>1306.552243899108</v>
       </c>
       <c r="W43" t="n">
-        <v>1054.575201337876</v>
+        <v>1054.575201337874</v>
       </c>
       <c r="X43" t="n">
-        <v>864.0257779155856</v>
+        <v>864.0257779155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.6733262477828</v>
+        <v>680.6733262477815</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C44" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D44" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E44" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F44" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G44" t="n">
         <v>444.1994386737234</v>
@@ -7649,22 +7649,22 @@
         <v>269.7628212368057</v>
       </c>
       <c r="K44" t="n">
-        <v>581.1608906942899</v>
+        <v>902.064849139743</v>
       </c>
       <c r="L44" t="n">
-        <v>1417.864095820058</v>
+        <v>1325.283451860565</v>
       </c>
       <c r="M44" t="n">
-        <v>2365.464172443578</v>
+        <v>2272.883528484085</v>
       </c>
       <c r="N44" t="n">
-        <v>3313.765411446432</v>
+        <v>3221.184767486939</v>
       </c>
       <c r="O44" t="n">
-        <v>4145.564879448317</v>
+        <v>3935.373038695011</v>
       </c>
       <c r="P44" t="n">
-        <v>4514.992417781604</v>
+        <v>4304.800577028298</v>
       </c>
       <c r="Q44" t="n">
         <v>4744.244367285898</v>
@@ -7673,25 +7673,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S44" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T44" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U44" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V44" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W44" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X44" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y44" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J45" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K45" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053119</v>
       </c>
       <c r="L45" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421301</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N45" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798261</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.59574178639</v>
+        <v>2152.439025896464</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364486</v>
       </c>
       <c r="Q45" t="n">
         <v>2590.532838984828</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>536.4649888932699</v>
+        <v>577.6060067228901</v>
       </c>
       <c r="C46" t="n">
-        <v>404.9689334410903</v>
+        <v>446.1099512707106</v>
       </c>
       <c r="D46" t="n">
-        <v>292.2924215044818</v>
+        <v>446.1099512707106</v>
       </c>
       <c r="E46" t="n">
-        <v>267.6496229334557</v>
+        <v>335.6369851640446</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6496229334557</v>
+        <v>226.1871651418615</v>
       </c>
       <c r="G46" t="n">
-        <v>267.6496229334557</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="I46" t="n">
         <v>95.84378516563895</v>
@@ -7807,10 +7807,10 @@
         <v>172.0715573122204</v>
       </c>
       <c r="K46" t="n">
-        <v>403.5678383014539</v>
+        <v>403.5678383014538</v>
       </c>
       <c r="L46" t="n">
-        <v>745.0678255577868</v>
+        <v>745.0678255577866</v>
       </c>
       <c r="M46" t="n">
         <v>1113.526067153838</v>
@@ -7819,7 +7819,7 @@
         <v>1479.530338453108</v>
       </c>
       <c r="O46" t="n">
-        <v>1804.379460496247</v>
+        <v>1804.379460496246</v>
       </c>
       <c r="P46" t="n">
         <v>2064.119419787879</v>
@@ -7834,22 +7834,22 @@
         <v>1960.134916650774</v>
       </c>
       <c r="T46" t="n">
-        <v>1775.463744254807</v>
+        <v>1775.463744254806</v>
       </c>
       <c r="U46" t="n">
         <v>1523.796604629268</v>
       </c>
       <c r="V46" t="n">
-        <v>1306.552243899109</v>
+        <v>1306.552243899108</v>
       </c>
       <c r="W46" t="n">
         <v>1054.575201337875</v>
       </c>
       <c r="X46" t="n">
-        <v>864.0257779155852</v>
+        <v>864.0257779155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>680.6733262477824</v>
+        <v>680.6733262477815</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>192.7961285322582</v>
+        <v>325.031710416627</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>79.59461669143894</v>
       </c>
       <c r="L14" t="n">
-        <v>192.7961285322585</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>17.01341829300395</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>311.5953172129055</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>362.1467837873458</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>143.1044536334132</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>399.0078170750509</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>421.0790347244554</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>17.01341829300412</v>
+        <v>143.104453633413</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>401.3933248629215</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.99830357328514</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>143.104453633413</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>362.1467837873458</v>
+        <v>275.1999140491085</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>17.01341829300395</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>143.104453633413</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>192.7961285322585</v>
+        <v>361.8927437043322</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>143.1044536334127</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>140.6621164036964</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>40.99830357328514</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>143.1044536334124</v>
       </c>
       <c r="R33" t="n">
         <v>6.057484836193765</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>424.1451892357122</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>155.9350952445534</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>143.104453633413</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>6.057484836193765</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>40.99830357328511</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,16 +10829,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>28.83169449243655</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>143.104453633413</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>6.057484836193765</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>192.7961285322583</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>99.99977666452068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>17.01341829300372</v>
+        <v>143.1044536334124</v>
       </c>
       <c r="R42" t="n">
         <v>6.057484836193765</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>362.1467837873458</v>
+        <v>243.3475951067265</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>143.104453633413</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>6.057484836193765</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>95.47835626656141</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.169509933003269</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.1056723774303</v>
       </c>
       <c r="H16" t="n">
-        <v>113.5763827726222</v>
+        <v>145.465079530659</v>
       </c>
       <c r="I16" t="n">
         <v>98.75415226141961</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.8901868729779</v>
+        <v>136.6636578614734</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.47835626656128</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.169509933003383</v>
       </c>
     </row>
     <row r="20">
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>188.0014901149412</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>95.47835626656143</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.52313384837929</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.20266352409309</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.0014901149406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>95.47835626656115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.20266352409308</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>92.52313384837929</v>
       </c>
       <c r="S31" t="n">
-        <v>41.69384177101369</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.8901868729779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.7908302589474</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>130.1810948976579</v>
+        <v>43.92403264660589</v>
       </c>
       <c r="D34" t="n">
-        <v>111.5497468172424</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80.63629214380471</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>130.1810948976579</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>63.14609278458722</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>84.92783435255751</v>
       </c>
       <c r="G37" t="n">
         <v>129.0399461764603</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>104.6435755911449</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E40" t="n">
-        <v>109.3682364455992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>108.3553218219613</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>40.77363915905247</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.1810948976579</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>111.5497468172424</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F43" t="n">
-        <v>80.63629214380441</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>42.95514953069558</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.72960765132499</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E46" t="n">
-        <v>84.97186586028334</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>108.3553218219613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>129.0399461764603</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777064.6398703979</v>
+        <v>777064.6398703977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777064.6398703979</v>
+        <v>777064.6398703982</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777064.6398703979</v>
+        <v>777064.6398703977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797212.4655572333</v>
+        <v>797212.4655572332</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797212.4655572333</v>
+        <v>797212.4655572328</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>633677.3768692669</v>
+        <v>633677.3768692673</v>
       </c>
       <c r="F2" t="n">
-        <v>633677.3768692669</v>
+        <v>633677.3768692672</v>
       </c>
       <c r="G2" t="n">
+        <v>633677.376869267</v>
+      </c>
+      <c r="H2" t="n">
         <v>633677.3768692672</v>
       </c>
-      <c r="H2" t="n">
-        <v>633677.3768692673</v>
-      </c>
       <c r="I2" t="n">
-        <v>633677.3768692671</v>
+        <v>633677.3768692672</v>
       </c>
       <c r="J2" t="n">
-        <v>633677.3768692674</v>
+        <v>633677.3768692672</v>
       </c>
       <c r="K2" t="n">
         <v>633677.3768692671</v>
@@ -26344,16 +26344,16 @@
         <v>650643.9669213388</v>
       </c>
       <c r="M2" t="n">
-        <v>650643.9669213386</v>
+        <v>650643.9669213388</v>
       </c>
       <c r="N2" t="n">
-        <v>650643.9669213387</v>
+        <v>650643.9669213389</v>
       </c>
       <c r="O2" t="n">
         <v>650643.9669213387</v>
       </c>
       <c r="P2" t="n">
-        <v>650643.9669213388</v>
+        <v>650643.9669213389</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>692851.363186256</v>
+        <v>692851.3631862559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.931911128849606e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.351047172608866e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29652.58096077598</v>
+        <v>29652.58096077595</v>
       </c>
       <c r="M3" t="n">
         <v>130523.0974606973</v>
@@ -26427,37 +26427,37 @@
         <v>25364.24197536294</v>
       </c>
       <c r="F4" t="n">
-        <v>25364.24197536298</v>
+        <v>25364.24197536294</v>
       </c>
       <c r="G4" t="n">
-        <v>25364.24197536296</v>
+        <v>25364.24197536202</v>
       </c>
       <c r="H4" t="n">
+        <v>25364.24197536294</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25364.24197536294</v>
+      </c>
+      <c r="J4" t="n">
         <v>25364.24197536295</v>
       </c>
-      <c r="I4" t="n">
-        <v>25364.24197536295</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25364.24197536296</v>
-      </c>
       <c r="K4" t="n">
-        <v>25364.24197536295</v>
+        <v>25364.24197536294</v>
       </c>
       <c r="L4" t="n">
-        <v>37560.71308549104</v>
+        <v>37560.71308549102</v>
       </c>
       <c r="M4" t="n">
+        <v>37560.71308549107</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37560.71308549103</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37560.71308549199</v>
+      </c>
+      <c r="P4" t="n">
         <v>37560.71308549108</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37560.71308549106</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37560.71308549104</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37560.71308549109</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>95632.92421108276</v>
       </c>
       <c r="G5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.9242110832</v>
       </c>
       <c r="H5" t="n">
         <v>95632.92421108276</v>
@@ -26506,7 +26506,7 @@
         <v>98749.00274707211</v>
       </c>
       <c r="O5" t="n">
-        <v>98749.00274707211</v>
+        <v>98749.00274707169</v>
       </c>
       <c r="P5" t="n">
         <v>98749.00274707211</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789573</v>
+        <v>-208200.137778957</v>
       </c>
       <c r="C6" t="n">
         <v>381767.7414355872</v>
@@ -26528,40 +26528,40 @@
         <v>381767.7414355875</v>
       </c>
       <c r="E6" t="n">
-        <v>-180171.1525034349</v>
+        <v>-180243.5151253785</v>
       </c>
       <c r="F6" t="n">
-        <v>512680.2106828211</v>
+        <v>512607.8480608772</v>
       </c>
       <c r="G6" t="n">
-        <v>512680.2106828215</v>
+        <v>512607.8480608755</v>
       </c>
       <c r="H6" t="n">
-        <v>512680.2106828216</v>
+        <v>512607.8480608791</v>
       </c>
       <c r="I6" t="n">
-        <v>512680.2106828213</v>
+        <v>512607.8480608772</v>
       </c>
       <c r="J6" t="n">
-        <v>336256.9914902289</v>
+        <v>336184.6288682843</v>
       </c>
       <c r="K6" t="n">
-        <v>512680.2106828213</v>
+        <v>512607.8480608771</v>
       </c>
       <c r="L6" t="n">
-        <v>484681.6701279996</v>
+        <v>484662.3280999682</v>
       </c>
       <c r="M6" t="n">
-        <v>383811.1536280781</v>
+        <v>383791.8116000468</v>
       </c>
       <c r="N6" t="n">
-        <v>514334.2510887755</v>
+        <v>514314.9090607443</v>
       </c>
       <c r="O6" t="n">
-        <v>514334.2510887755</v>
+        <v>514314.9090607435</v>
       </c>
       <c r="P6" t="n">
-        <v>514334.2510887756</v>
+        <v>514314.9090607442</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26802,7 +26802,7 @@
         <v>1198.047314570487</v>
       </c>
       <c r="G4" t="n">
-        <v>1198.047314570487</v>
+        <v>1198.047314570494</v>
       </c>
       <c r="H4" t="n">
         <v>1198.047314570487</v>
@@ -26826,7 +26826,7 @@
         <v>1198.047314570487</v>
       </c>
       <c r="O4" t="n">
-        <v>1198.047314570487</v>
+        <v>1198.04731457048</v>
       </c>
       <c r="P4" t="n">
         <v>1198.047314570487</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>667.7447525350775</v>
+        <v>667.7447525350774</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.048583938740194e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.06071507549132e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.048583938740194e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328963</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.56863447648526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>309.4615809708189</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>212.0975279483342</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>240.6800661475173</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.25111528509447</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2.791239239741117e-11</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="35">
@@ -29986,19 +29986,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>9.094947017729282e-13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.825117917382158e-11</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.06572620096998</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
   </sheetData>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31060,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,31 +31118,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535575</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112795</v>
       </c>
       <c r="K11" t="n">
         <v>638.688917073674</v>
       </c>
       <c r="L11" t="n">
-        <v>427.4935381018406</v>
+        <v>845.154752652291</v>
       </c>
       <c r="M11" t="n">
         <v>507.6582610763793</v>
       </c>
       <c r="N11" t="n">
-        <v>713.3292435170966</v>
+        <v>845.5648254014654</v>
       </c>
       <c r="O11" t="n">
-        <v>858.854880305586</v>
+        <v>478.0546990428406</v>
       </c>
       <c r="P11" t="n">
         <v>694.9578378010658</v>
@@ -35647,16 +35647,16 @@
         <v>344.7724091833533</v>
       </c>
       <c r="K14" t="n">
-        <v>638.688917073674</v>
+        <v>394.1381211939482</v>
       </c>
       <c r="L14" t="n">
-        <v>620.289666634099</v>
+        <v>427.4935381018406</v>
       </c>
       <c r="M14" t="n">
         <v>507.6582610763793</v>
       </c>
       <c r="N14" t="n">
-        <v>520.5331149848384</v>
+        <v>957.8800393968226</v>
       </c>
       <c r="O14" t="n">
         <v>858.854880305586</v>
@@ -35726,7 +35726,7 @@
         <v>211.7144085346702</v>
       </c>
       <c r="K15" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781356</v>
       </c>
       <c r="L15" t="n">
         <v>349.7183001382002</v>
@@ -35735,7 +35735,7 @@
         <v>427.657153207911</v>
       </c>
       <c r="N15" t="n">
-        <v>453.5301523033326</v>
+        <v>470.5435705963365</v>
       </c>
       <c r="O15" t="n">
         <v>392.4472474758824</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6757940112795</v>
+        <v>344.7724091833533</v>
       </c>
       <c r="K17" t="n">
         <v>314.5435045025093</v>
@@ -35890,22 +35890,22 @@
         <v>845.154752652291</v>
       </c>
       <c r="M17" t="n">
-        <v>957.1717945692118</v>
+        <v>819.2535782892847</v>
       </c>
       <c r="N17" t="n">
-        <v>957.8800393968226</v>
+        <v>520.5331149848384</v>
       </c>
       <c r="O17" t="n">
-        <v>840.2014828301865</v>
+        <v>858.854880305586</v>
       </c>
       <c r="P17" t="n">
-        <v>373.1591296295832</v>
+        <v>694.9578378010658</v>
       </c>
       <c r="Q17" t="n">
         <v>231.5676257619133</v>
       </c>
       <c r="R17" t="n">
-        <v>48.42918282429252</v>
+        <v>114.145602697275</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K18" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781356</v>
       </c>
       <c r="L18" t="n">
-        <v>349.7183001382002</v>
+        <v>492.8227537716135</v>
       </c>
       <c r="M18" t="n">
         <v>427.657153207911</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.6757940112795</v>
+        <v>344.7724091833533</v>
       </c>
       <c r="K20" t="n">
         <v>314.5435045025093</v>
       </c>
       <c r="L20" t="n">
-        <v>826.5013551768915</v>
+        <v>845.154752652291</v>
       </c>
       <c r="M20" t="n">
-        <v>957.1717945692118</v>
+        <v>507.6582610763793</v>
       </c>
       <c r="N20" t="n">
-        <v>957.8800393968226</v>
+        <v>941.6121497092938</v>
       </c>
       <c r="O20" t="n">
         <v>858.854880305586</v>
@@ -36139,10 +36139,10 @@
         <v>373.1591296295832</v>
       </c>
       <c r="Q20" t="n">
-        <v>231.5676257619133</v>
+        <v>443.882616421818</v>
       </c>
       <c r="R20" t="n">
-        <v>48.42918282429252</v>
+        <v>114.145602697275</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K21" t="n">
-        <v>242.3016683711397</v>
+        <v>368.3927037115486</v>
       </c>
       <c r="L21" t="n">
         <v>349.7183001382002</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.6757940112795</v>
+        <v>344.7724091833533</v>
       </c>
       <c r="K23" t="n">
-        <v>638.688917073674</v>
+        <v>314.5435045025093</v>
       </c>
       <c r="L23" t="n">
-        <v>845.154752652291</v>
+        <v>427.4935381018406</v>
       </c>
       <c r="M23" t="n">
-        <v>507.6582610763793</v>
+        <v>909.0515859393008</v>
       </c>
       <c r="N23" t="n">
         <v>957.8800393968226</v>
@@ -36376,7 +36376,7 @@
         <v>373.1591296295832</v>
       </c>
       <c r="Q23" t="n">
-        <v>272.5659293351985</v>
+        <v>443.882616421818</v>
       </c>
       <c r="R23" t="n">
         <v>114.145602697275</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K24" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781356</v>
       </c>
       <c r="L24" t="n">
         <v>349.7183001382002</v>
@@ -36449,7 +36449,7 @@
         <v>453.5301523033326</v>
       </c>
       <c r="O24" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092953</v>
       </c>
       <c r="P24" t="n">
         <v>295.4451651192143</v>
@@ -36595,25 +36595,25 @@
         <v>175.6757940112795</v>
       </c>
       <c r="K26" t="n">
-        <v>314.5435045025093</v>
+        <v>638.688917073674</v>
       </c>
       <c r="L26" t="n">
         <v>845.154752652291</v>
       </c>
       <c r="M26" t="n">
-        <v>957.1717945692118</v>
+        <v>507.6582610763793</v>
       </c>
       <c r="N26" t="n">
         <v>957.8800393968226</v>
       </c>
       <c r="O26" t="n">
-        <v>840.2014828301865</v>
+        <v>753.2546130919492</v>
       </c>
       <c r="P26" t="n">
         <v>373.1591296295832</v>
       </c>
       <c r="Q26" t="n">
-        <v>231.5676257619133</v>
+        <v>443.882616421818</v>
       </c>
       <c r="R26" t="n">
         <v>48.42918282429252</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K27" t="n">
         <v>225.2882500781356</v>
@@ -36683,10 +36683,10 @@
         <v>427.657153207911</v>
       </c>
       <c r="N27" t="n">
-        <v>470.5435705963365</v>
+        <v>453.5301523033326</v>
       </c>
       <c r="O27" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092953</v>
       </c>
       <c r="P27" t="n">
         <v>295.4451651192143</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112795</v>
       </c>
       <c r="K29" t="n">
         <v>638.688917073674</v>
       </c>
       <c r="L29" t="n">
-        <v>620.289666634099</v>
+        <v>789.3862818061727</v>
       </c>
       <c r="M29" t="n">
         <v>507.6582610763793</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K30" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781356</v>
       </c>
       <c r="L30" t="n">
         <v>349.7183001382002</v>
@@ -36926,7 +36926,7 @@
         <v>392.4472474758824</v>
       </c>
       <c r="P30" t="n">
-        <v>295.4451651192143</v>
+        <v>438.5496187526271</v>
       </c>
       <c r="Q30" t="n">
         <v>147.0738380003463</v>
@@ -37069,16 +37069,16 @@
         <v>175.6757940112795</v>
       </c>
       <c r="K32" t="n">
-        <v>638.688917073674</v>
+        <v>314.5435045025093</v>
       </c>
       <c r="L32" t="n">
         <v>845.154752652291</v>
       </c>
       <c r="M32" t="n">
-        <v>507.6582610763793</v>
+        <v>957.1717945692118</v>
       </c>
       <c r="N32" t="n">
-        <v>957.8800393968226</v>
+        <v>661.1952313885348</v>
       </c>
       <c r="O32" t="n">
         <v>858.854880305586</v>
@@ -37087,7 +37087,7 @@
         <v>373.1591296295832</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.5659293351985</v>
+        <v>443.882616421818</v>
       </c>
       <c r="R32" t="n">
         <v>114.145602697275</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K33" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781356</v>
       </c>
       <c r="L33" t="n">
         <v>349.7183001382002</v>
@@ -37166,7 +37166,7 @@
         <v>295.4451651192143</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.0738380003463</v>
+        <v>290.1782916337588</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301157</v>
       </c>
       <c r="K34" t="n">
         <v>233.8346272618519</v>
       </c>
       <c r="L34" t="n">
-        <v>344.9494820771041</v>
+        <v>344.949482077104</v>
       </c>
       <c r="M34" t="n">
         <v>372.1800420162132</v>
@@ -37239,13 +37239,13 @@
         <v>369.701284140677</v>
       </c>
       <c r="O34" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062006</v>
       </c>
       <c r="P34" t="n">
-        <v>262.3635952440731</v>
+        <v>262.363595244073</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.7724338788524</v>
+        <v>108.7724338788523</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112795</v>
       </c>
       <c r="K35" t="n">
-        <v>638.688917073674</v>
+        <v>314.5435045025093</v>
       </c>
       <c r="L35" t="n">
         <v>845.154752652291</v>
       </c>
       <c r="M35" t="n">
-        <v>507.6582610763793</v>
+        <v>931.8034503120915</v>
       </c>
       <c r="N35" t="n">
-        <v>520.5331149848384</v>
+        <v>957.8800393968226</v>
       </c>
       <c r="O35" t="n">
-        <v>633.989794287394</v>
+        <v>478.0546990428406</v>
       </c>
       <c r="P35" t="n">
         <v>694.9578378010658</v>
       </c>
       <c r="Q35" t="n">
-        <v>443.882616421818</v>
+        <v>231.5676257619133</v>
       </c>
       <c r="R35" t="n">
         <v>114.145602697275</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K36" t="n">
         <v>225.2882500781356</v>
@@ -37397,13 +37397,13 @@
         <v>453.5301523033326</v>
       </c>
       <c r="O36" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092953</v>
       </c>
       <c r="P36" t="n">
         <v>295.4451651192143</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003463</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301157</v>
       </c>
       <c r="K37" t="n">
         <v>233.8346272618519</v>
@@ -37476,13 +37476,13 @@
         <v>369.701284140677</v>
       </c>
       <c r="O37" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062006</v>
       </c>
       <c r="P37" t="n">
-        <v>262.3635952440731</v>
+        <v>262.363595244073</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.7724338788524</v>
+        <v>108.7724338788523</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>216.6740975845647</v>
+        <v>175.6757940112795</v>
       </c>
       <c r="K38" t="n">
         <v>638.688917073674</v>
@@ -37549,16 +37549,16 @@
         <v>845.154752652291</v>
       </c>
       <c r="M38" t="n">
-        <v>507.6582610763793</v>
+        <v>957.1717945692118</v>
       </c>
       <c r="N38" t="n">
-        <v>957.8800393968226</v>
+        <v>520.5331149848384</v>
       </c>
       <c r="O38" t="n">
         <v>858.854880305586</v>
       </c>
       <c r="P38" t="n">
-        <v>373.1591296295832</v>
+        <v>401.9908241220198</v>
       </c>
       <c r="Q38" t="n">
         <v>231.5676257619133</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K39" t="n">
         <v>225.2882500781356</v>
@@ -37634,13 +37634,13 @@
         <v>453.5301523033326</v>
       </c>
       <c r="O39" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092953</v>
       </c>
       <c r="P39" t="n">
         <v>295.4451651192143</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003463</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301157</v>
       </c>
       <c r="K40" t="n">
         <v>233.8346272618519</v>
@@ -37713,13 +37713,13 @@
         <v>369.701284140677</v>
       </c>
       <c r="O40" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062006</v>
       </c>
       <c r="P40" t="n">
-        <v>262.3635952440731</v>
+        <v>262.363595244073</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.7724338788524</v>
+        <v>108.7724338788523</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112795</v>
       </c>
       <c r="K41" t="n">
         <v>638.688917073674</v>
       </c>
       <c r="L41" t="n">
-        <v>427.4935381018406</v>
+        <v>845.154752652291</v>
       </c>
       <c r="M41" t="n">
-        <v>700.4543896086376</v>
+        <v>507.6582610763793</v>
       </c>
       <c r="N41" t="n">
-        <v>520.5331149848384</v>
+        <v>957.8800393968226</v>
       </c>
       <c r="O41" t="n">
-        <v>858.854880305586</v>
+        <v>478.0546990428406</v>
       </c>
       <c r="P41" t="n">
         <v>694.9578378010658</v>
       </c>
       <c r="Q41" t="n">
-        <v>443.882616421818</v>
+        <v>331.567402426434</v>
       </c>
       <c r="R41" t="n">
         <v>114.145602697275</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K42" t="n">
         <v>225.2882500781356</v>
@@ -37877,7 +37877,7 @@
         <v>295.4451651192143</v>
       </c>
       <c r="Q42" t="n">
-        <v>164.08725629335</v>
+        <v>290.1782916337588</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301157</v>
       </c>
       <c r="K43" t="n">
         <v>233.8346272618519</v>
@@ -37950,13 +37950,13 @@
         <v>369.701284140677</v>
       </c>
       <c r="O43" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062006</v>
       </c>
       <c r="P43" t="n">
-        <v>262.3635952440731</v>
+        <v>262.363595244073</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.7724338788524</v>
+        <v>108.7724338788523</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>175.6757940112795</v>
       </c>
       <c r="K44" t="n">
-        <v>314.5435045025093</v>
+        <v>638.688917073674</v>
       </c>
       <c r="L44" t="n">
-        <v>845.154752652291</v>
+        <v>427.4935381018406</v>
       </c>
       <c r="M44" t="n">
         <v>957.1717945692118</v>
@@ -38029,13 +38029,13 @@
         <v>957.8800393968226</v>
       </c>
       <c r="O44" t="n">
-        <v>840.2014828301865</v>
+        <v>721.4022941495672</v>
       </c>
       <c r="P44" t="n">
         <v>373.1591296295832</v>
       </c>
       <c r="Q44" t="n">
-        <v>231.5676257619133</v>
+        <v>443.882616421818</v>
       </c>
       <c r="R44" t="n">
         <v>48.42918282429252</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426132</v>
       </c>
       <c r="K45" t="n">
         <v>225.2882500781356</v>
@@ -38108,13 +38108,13 @@
         <v>453.5301523033326</v>
       </c>
       <c r="O45" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092953</v>
       </c>
       <c r="P45" t="n">
         <v>295.4451651192143</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003463</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301157</v>
       </c>
       <c r="K46" t="n">
         <v>233.8346272618519</v>
       </c>
       <c r="L46" t="n">
-        <v>344.9494820771041</v>
+        <v>344.949482077104</v>
       </c>
       <c r="M46" t="n">
         <v>372.1800420162132</v>
@@ -38187,13 +38187,13 @@
         <v>369.701284140677</v>
       </c>
       <c r="O46" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062006</v>
       </c>
       <c r="P46" t="n">
-        <v>262.3635952440731</v>
+        <v>262.363595244073</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.7724338788524</v>
+        <v>108.7724338788523</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
